--- a/medicine/Psychotrope/Munkoyo/Munkoyo.xlsx
+++ b/medicine/Psychotrope/Munkoyo/Munkoyo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le munkoyo, ou ibwatu, est une boisson fermentée de type bière produite traditionnellement en République démocratique du Congo (province du Katanga) et en Zambie, à partir de racines (appelées elles aussi munkoyo) d'arbustes du genre Eminia qui fournissent des enzymes exogènes capables d'assurer la saccharification sans passer par un maltage. Dès lors, le brassage s'effectue directement à partir d'une bouillie de maïs, de sorgho ou de manioc que le munkoyo permet de liquéfier instantanément et qui produit une boisson alcoolisée à 2 ou 3 % en volume sous l'action des sucres fermentescibles.
 </t>
